--- a/contratos/contratos-10-2011.xlsx
+++ b/contratos/contratos-10-2011.xlsx
@@ -517,7 +517,7 @@
     <t>BIDAL RODOLFO CESAR</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>BONNET GUSTAVO MARTIN</t>
@@ -565,7 +565,7 @@
     <t>FERNANDEZ MARIELA VIVIANA</t>
   </si>
   <si>
-    <t>GIMENEZ, ROBERTO ADRIAN</t>
+    <t>GIMENEZ. ROBERTO ADRIAN</t>
   </si>
   <si>
     <t>LOIACONO JOSE ANTONIO</t>
@@ -856,283 +856,283 @@
     <t>104</t>
   </si>
   <si>
-    <t>1.140,00</t>
-  </si>
-  <si>
-    <t>1.185,00</t>
-  </si>
-  <si>
-    <t>1.013,00</t>
-  </si>
-  <si>
-    <t>196,92</t>
-  </si>
-  <si>
-    <t>99,63</t>
-  </si>
-  <si>
-    <t>14.997,80</t>
-  </si>
-  <si>
-    <t>67.726,75</t>
-  </si>
-  <si>
-    <t>38.989,20</t>
-  </si>
-  <si>
-    <t>5.850,00</t>
-  </si>
-  <si>
-    <t>25.759,55</t>
-  </si>
-  <si>
-    <t>541,61</t>
-  </si>
-  <si>
-    <t>8.326,91</t>
-  </si>
-  <si>
-    <t>9.218,66</t>
-  </si>
-  <si>
-    <t>720,00</t>
-  </si>
-  <si>
-    <t>8.309,99</t>
-  </si>
-  <si>
-    <t>3.660,50</t>
-  </si>
-  <si>
-    <t>93,12</t>
-  </si>
-  <si>
-    <t>2.869,00</t>
-  </si>
-  <si>
-    <t>1.279,00</t>
-  </si>
-  <si>
-    <t>265,59</t>
-  </si>
-  <si>
-    <t>1.209,96</t>
-  </si>
-  <si>
-    <t>3.029,50</t>
-  </si>
-  <si>
-    <t>3.850,00</t>
-  </si>
-  <si>
-    <t>1.357,14</t>
-  </si>
-  <si>
-    <t>53,00</t>
-  </si>
-  <si>
-    <t>17.300,00</t>
-  </si>
-  <si>
-    <t>7.840,00</t>
-  </si>
-  <si>
-    <t>188,06</t>
-  </si>
-  <si>
-    <t>56,00</t>
-  </si>
-  <si>
-    <t>6.680,00</t>
-  </si>
-  <si>
-    <t>1.720,04</t>
-  </si>
-  <si>
-    <t>38.434,00</t>
-  </si>
-  <si>
-    <t>15.779,40</t>
-  </si>
-  <si>
-    <t>605,00</t>
-  </si>
-  <si>
-    <t>2.430,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>1.192,50</t>
-  </si>
-  <si>
-    <t>50.400,00</t>
-  </si>
-  <si>
-    <t>7.315,00</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>1.133,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>75,43</t>
-  </si>
-  <si>
-    <t>84,00</t>
-  </si>
-  <si>
-    <t>7.260,00</t>
-  </si>
-  <si>
-    <t>13,58</t>
-  </si>
-  <si>
-    <t>6.035,00</t>
-  </si>
-  <si>
-    <t>70,00</t>
-  </si>
-  <si>
-    <t>399,80</t>
-  </si>
-  <si>
-    <t>155,22</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>2.315,00</t>
-  </si>
-  <si>
-    <t>4.400,00</t>
-  </si>
-  <si>
-    <t>4.950,00</t>
-  </si>
-  <si>
-    <t>2.950,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>3.400,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>7.865,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>1.037,00</t>
-  </si>
-  <si>
-    <t>2.420,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>11.381,49</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>1.970,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>119,00</t>
-  </si>
-  <si>
-    <t>1.210,00</t>
-  </si>
-  <si>
-    <t>9.600,00</t>
-  </si>
-  <si>
-    <t>3.988,00</t>
-  </si>
-  <si>
-    <t>27.093,00</t>
-  </si>
-  <si>
-    <t>1.360,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>2.172,00</t>
-  </si>
-  <si>
-    <t>4.919,70</t>
-  </si>
-  <si>
-    <t>42.281,86</t>
-  </si>
-  <si>
-    <t>2.809,66</t>
-  </si>
-  <si>
-    <t>748,99</t>
-  </si>
-  <si>
-    <t>28.200,00</t>
-  </si>
-  <si>
-    <t>5.326,13</t>
-  </si>
-  <si>
-    <t>486.790,00</t>
-  </si>
-  <si>
-    <t>169.700,00</t>
-  </si>
-  <si>
-    <t>110.250,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>35.200,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>63.360,00</t>
-  </si>
-  <si>
-    <t>157.129,00</t>
-  </si>
-  <si>
-    <t>125.000,00</t>
-  </si>
-  <si>
-    <t>88.000,00</t>
+    <t>1140.00</t>
+  </si>
+  <si>
+    <t>1185.00</t>
+  </si>
+  <si>
+    <t>1013.00</t>
+  </si>
+  <si>
+    <t>196.92</t>
+  </si>
+  <si>
+    <t>99.63</t>
+  </si>
+  <si>
+    <t>14997.80</t>
+  </si>
+  <si>
+    <t>67726.75</t>
+  </si>
+  <si>
+    <t>38989.20</t>
+  </si>
+  <si>
+    <t>5850.00</t>
+  </si>
+  <si>
+    <t>25759.55</t>
+  </si>
+  <si>
+    <t>541.61</t>
+  </si>
+  <si>
+    <t>8326.91</t>
+  </si>
+  <si>
+    <t>9218.66</t>
+  </si>
+  <si>
+    <t>720.00</t>
+  </si>
+  <si>
+    <t>8309.99</t>
+  </si>
+  <si>
+    <t>3660.50</t>
+  </si>
+  <si>
+    <t>93.12</t>
+  </si>
+  <si>
+    <t>2869.00</t>
+  </si>
+  <si>
+    <t>1279.00</t>
+  </si>
+  <si>
+    <t>265.59</t>
+  </si>
+  <si>
+    <t>1209.96</t>
+  </si>
+  <si>
+    <t>3029.50</t>
+  </si>
+  <si>
+    <t>3850.00</t>
+  </si>
+  <si>
+    <t>1357.14</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>17300.00</t>
+  </si>
+  <si>
+    <t>7840.00</t>
+  </si>
+  <si>
+    <t>188.06</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>6680.00</t>
+  </si>
+  <si>
+    <t>1720.04</t>
+  </si>
+  <si>
+    <t>38434.00</t>
+  </si>
+  <si>
+    <t>15779.40</t>
+  </si>
+  <si>
+    <t>605.00</t>
+  </si>
+  <si>
+    <t>2430.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>1192.50</t>
+  </si>
+  <si>
+    <t>50400.00</t>
+  </si>
+  <si>
+    <t>7315.00</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>1133.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>75.43</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>7260.00</t>
+  </si>
+  <si>
+    <t>13.58</t>
+  </si>
+  <si>
+    <t>6035.00</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>399.80</t>
+  </si>
+  <si>
+    <t>155.22</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>2315.00</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>4950.00</t>
+  </si>
+  <si>
+    <t>2950.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>3400.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>7865.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>1037.00</t>
+  </si>
+  <si>
+    <t>2420.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>11381.49</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>1970.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>119.00</t>
+  </si>
+  <si>
+    <t>1210.00</t>
+  </si>
+  <si>
+    <t>9600.00</t>
+  </si>
+  <si>
+    <t>3988.00</t>
+  </si>
+  <si>
+    <t>27093.00</t>
+  </si>
+  <si>
+    <t>1360.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>2172.00</t>
+  </si>
+  <si>
+    <t>4919.70</t>
+  </si>
+  <si>
+    <t>42281.86</t>
+  </si>
+  <si>
+    <t>2809.66</t>
+  </si>
+  <si>
+    <t>748.99</t>
+  </si>
+  <si>
+    <t>28200.00</t>
+  </si>
+  <si>
+    <t>5326.13</t>
+  </si>
+  <si>
+    <t>486790.00</t>
+  </si>
+  <si>
+    <t>169700.00</t>
+  </si>
+  <si>
+    <t>110250.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>35200.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>63360.00</t>
+  </si>
+  <si>
+    <t>157129.00</t>
+  </si>
+  <si>
+    <t>125000.00</t>
+  </si>
+  <si>
+    <t>88000.00</t>
   </si>
 </sst>
 </file>
